--- a/examples/wangetal2018/out/ResultFiles/DR_0.2_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/DR_0.2_a.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="169">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -303,7 +309,7 @@
     <t>X56</t>
   </si>
   <si>
-    <t>S 10</t>
+    <t>S 40S</t>
   </si>
   <si>
     <t>Breakdown of compressor by station</t>
@@ -456,46 +462,46 @@
     <t>N10</t>
   </si>
   <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Cumulative length (km)</t>
+  </si>
+  <si>
+    <t>Cumulative length (mi)</t>
+  </si>
+  <si>
+    <t>Pressure Ratio</t>
+  </si>
+  <si>
+    <t>Fuel consumption (MMBTU/hr)</t>
+  </si>
+  <si>
+    <t>Shaft power (hp)</t>
+  </si>
+  <si>
+    <t>Rating (MW)</t>
+  </si>
+  <si>
+    <t>Isentropic efficiency</t>
+  </si>
+  <si>
+    <t>Driver efficiency</t>
+  </si>
+  <si>
+    <t>Cost ($)</t>
+  </si>
+  <si>
+    <t>Revamp cost ($)</t>
+  </si>
+  <si>
+    <t>Total cost ($)</t>
+  </si>
+  <si>
     <t>Existing</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Segment</t>
-  </si>
-  <si>
-    <t>Cumulative length (km)</t>
-  </si>
-  <si>
-    <t>Cumulative length (mi)</t>
-  </si>
-  <si>
-    <t>Pressure Ratio</t>
-  </si>
-  <si>
-    <t>Fuel consumption (MMBTU/hr)</t>
-  </si>
-  <si>
-    <t>Shaft power (hp)</t>
-  </si>
-  <si>
-    <t>Rating (MW)</t>
-  </si>
-  <si>
-    <t>Isentropic efficiency</t>
-  </si>
-  <si>
-    <t>Mechanical efficiency</t>
-  </si>
-  <si>
-    <t>Cost ($)</t>
-  </si>
-  <si>
-    <t>Revamp cost ($)</t>
-  </si>
-  <si>
-    <t>Total cost ($)</t>
   </si>
   <si>
     <t>Node</t>
@@ -1125,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1147,10 +1153,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.2617246445189932</v>
+        <v>0.3710416817585803</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1158,10 +1164,10 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.0593615033956733</v>
+        <v>0.1788699751687788</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1172,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1180,10 +1186,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03079604633710958</v>
+        <v>0.0307245789615052</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1194,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1202,10 +1208,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006363800999349983</v>
+        <v>0.006349032734900917</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1213,10 +1219,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01457122052769231</v>
+        <v>0.01505235692050328</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1227,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1238,7 +1244,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1246,10 +1252,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.1002740321397387</v>
+        <v>0.05247048681259371</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1260,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1271,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1282,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1290,10 +1296,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.003164491379430389</v>
+        <v>0.007538262375008494</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1301,10 +1307,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.02918972374344893</v>
+        <v>0.06199668397451732</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1312,10 +1318,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.0009858142745665841</v>
+        <v>0.001022293088789189</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1326,7 +1332,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1337,7 +1343,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1348,7 +1354,7 @@
         <v>9.271350212696891</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1359,7 +1365,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1370,7 +1376,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1378,10 +1384,10 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1389,10 +1395,10 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>80.77823000000001</v>
+        <v>248.5484</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1411,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1419,10 +1425,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>5706.429087612465</v>
+        <v>2986.008498903386</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1430,10 +1436,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>237.7678786505194</v>
+        <v>124.4170207876411</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1444,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1452,10 +1458,10 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>97820418.77559772</v>
+        <v>295441226.2830205</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1466,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1477,7 +1483,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1488,7 +1494,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1496,165 +1502,150 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>24011570</v>
+        <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>7.406825856025969</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>700</v>
-      </c>
-      <c r="B46">
-        <v>130</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D46" t="s">
+      <c r="H46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E46">
-        <v>51752547.88532828</v>
-      </c>
-      <c r="F46">
-        <v>32066106.83390081</v>
-      </c>
-      <c r="G46">
-        <v>14001764.05636863</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>650</v>
+      </c>
+      <c r="B47">
+        <v>400</v>
+      </c>
+      <c r="C47" t="s">
         <v>93</v>
       </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47">
+        <v>177127706.638195</v>
+      </c>
+      <c r="F47">
+        <v>82061602.62209213</v>
+      </c>
+      <c r="G47">
+        <v>36251917.02273338</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
+      <c r="G52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B52">
-        <v>11.50791476765372</v>
-      </c>
-      <c r="C52">
-        <v>12.5</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G52">
-        <v>109.9901421129458</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
+      <c r="H52" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53">
-        <v>5.523782127329225</v>
+        <v>4.256044174006567</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1669,7 +1660,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>52.79510610328959</v>
+        <v>40.67834294825942</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1677,10 +1668,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B54">
-        <v>7.845191428211237</v>
+        <v>5.43355326985829</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1695,9 +1686,35 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>74.98263043428399</v>
+        <v>51.93271834179766</v>
       </c>
       <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55">
+        <v>3.327755233062496</v>
+      </c>
+      <c r="C55">
+        <v>12.5</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G55">
+        <v>31.80595949758399</v>
+      </c>
+      <c r="H55">
         <v>0</v>
       </c>
     </row>
@@ -1716,58 +1733,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1775,34 +1792,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F2">
-        <v>111.9989677052051</v>
+        <v>111.4271514164535</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K2">
-        <v>6.082278702557526</v>
+        <v>8.234718328459278</v>
       </c>
       <c r="L2">
         <v>40</v>
@@ -1811,19 +1828,19 @@
         <v>24.85484</v>
       </c>
       <c r="N2">
-        <v>6082278.702557526</v>
+        <v>8234718.328459279</v>
       </c>
       <c r="O2">
-        <v>5032461.057298925</v>
+        <v>7509791.199022888</v>
       </c>
       <c r="P2">
-        <v>11.57210843970268</v>
+        <v>7.614698401536553</v>
       </c>
       <c r="Q2">
-        <v>0.02352630542972149</v>
+        <v>0.01527719573544961</v>
       </c>
       <c r="R2">
-        <v>22.28748017980732</v>
+        <v>18.12570696367152</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1831,34 +1848,34 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F3">
-        <v>111.9989581576188</v>
+        <v>111.4271583708736</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K3">
-        <v>6.082278702557526</v>
+        <v>8.234718328459278</v>
       </c>
       <c r="L3">
         <v>30</v>
@@ -1867,19 +1884,19 @@
         <v>18.64113</v>
       </c>
       <c r="N3">
-        <v>5032461.057298925</v>
+        <v>7509791.199022888</v>
       </c>
       <c r="O3">
-        <v>4065706.353322384</v>
+        <v>6914364.611808279</v>
       </c>
       <c r="P3">
-        <v>14.38635717564967</v>
+        <v>8.295821537287075</v>
       </c>
       <c r="Q3">
-        <v>0.02941937820075132</v>
+        <v>0.01669486931914739</v>
       </c>
       <c r="R3">
-        <v>24.85016617311425</v>
+        <v>18.91899871324437</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1887,34 +1904,34 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F4">
-        <v>111.4436625936532</v>
+        <v>111.2216963197888</v>
       </c>
       <c r="G4">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I4">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4">
-        <v>6.362068659838899</v>
+        <v>8.234718328459278</v>
       </c>
       <c r="L4">
         <v>31.5</v>
@@ -1923,19 +1940,19 @@
         <v>19.5731865</v>
       </c>
       <c r="N4">
-        <v>6362068.659838899</v>
+        <v>8234718.328459279</v>
       </c>
       <c r="O4">
-        <v>5870527.070487222</v>
+        <v>7671909.157112338</v>
       </c>
       <c r="P4">
-        <v>8.360133591483939</v>
+        <v>7.433994308468796</v>
       </c>
       <c r="Q4">
-        <v>0.01691744362755297</v>
+        <v>0.01490231216669622</v>
       </c>
       <c r="R4">
-        <v>20.58984551474579</v>
+        <v>17.92595103712143</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1943,34 +1960,34 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F5">
-        <v>91.65800962065245</v>
+        <v>91.4360445523488</v>
       </c>
       <c r="G5">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I5">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5">
-        <v>6.362068659838899</v>
+        <v>8.234718328459278</v>
       </c>
       <c r="L5">
         <v>48.5</v>
@@ -1979,19 +1996,19 @@
         <v>30.1364935</v>
       </c>
       <c r="N5">
-        <v>5870527.070487222</v>
+        <v>7671909.157112338</v>
       </c>
       <c r="O5">
-        <v>5303831.340960642</v>
+        <v>7031708.239019395</v>
       </c>
       <c r="P5">
-        <v>7.633574392201369</v>
+        <v>6.689693872511192</v>
       </c>
       <c r="Q5">
-        <v>0.01549537623413087</v>
+        <v>0.01345443853198997</v>
       </c>
       <c r="R5">
-        <v>21.69466329694448</v>
+        <v>18.75470558704113</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1999,34 +2016,34 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F6">
-        <v>91.65800970709471</v>
+        <v>91.43604481623245</v>
       </c>
       <c r="G6">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I6">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K6">
-        <v>6.362068659838899</v>
+        <v>8.234718328459278</v>
       </c>
       <c r="L6">
         <v>50</v>
@@ -2035,19 +2052,19 @@
         <v>31.06855</v>
       </c>
       <c r="N6">
-        <v>5303831.340960642</v>
+        <v>7031708.239019395</v>
       </c>
       <c r="O6">
-        <v>4645603.903656286</v>
+        <v>6301260.530028175</v>
       </c>
       <c r="P6">
-        <v>8.743861790281343</v>
+        <v>7.494281000673162</v>
       </c>
       <c r="Q6">
-        <v>0.01781660407809615</v>
+        <v>0.01513039729995665</v>
       </c>
       <c r="R6">
-        <v>23.21884294538814</v>
+        <v>19.85053010953136</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2055,34 +2072,34 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7">
-        <v>91.39190606959959</v>
+        <v>91.17429546536687</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>6.082278702557526</v>
+        <v>8.234718328459278</v>
       </c>
       <c r="L7">
         <v>50</v>
@@ -2091,19 +2108,19 @@
         <v>31.06855</v>
       </c>
       <c r="N7">
-        <v>6082278.702557526</v>
+        <v>8234718.328459279</v>
       </c>
       <c r="O7">
-        <v>5216436.929822829</v>
+        <v>7628109.572990223</v>
       </c>
       <c r="P7">
-        <v>9.10112515925616</v>
+        <v>6.130353462908104</v>
       </c>
       <c r="Q7">
-        <v>0.0184834270248837</v>
+        <v>0.01229175639002622</v>
       </c>
       <c r="R7">
-        <v>21.88061709841587</v>
+        <v>17.97928600161139</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2111,34 +2128,34 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8">
-        <v>91.39190605676602</v>
+        <v>91.17429546762048</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K8">
-        <v>6.082278702557526</v>
+        <v>8.234718328459278</v>
       </c>
       <c r="L8">
         <v>50</v>
@@ -2147,19 +2164,19 @@
         <v>31.06855</v>
       </c>
       <c r="N8">
-        <v>5216436.929822829</v>
+        <v>7628109.572990223</v>
       </c>
       <c r="O8">
-        <v>4169066.800903205</v>
+        <v>6966732.04093344</v>
       </c>
       <c r="P8">
-        <v>11.44351732238087</v>
+        <v>6.735046244103862</v>
       </c>
       <c r="Q8">
-        <v>0.02338588527144739</v>
+        <v>0.01355021394407984</v>
       </c>
       <c r="R8">
-        <v>24.5353234897552</v>
+        <v>18.84516628988888</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2167,34 +2184,34 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F9">
-        <v>91.01399329950169</v>
+        <v>91.01399329921645</v>
       </c>
       <c r="G9">
         <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9">
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K9">
-        <v>6.082278702557526</v>
+        <v>8.234718328459278</v>
       </c>
       <c r="L9">
         <v>50</v>
@@ -2203,19 +2220,19 @@
         <v>31.06855</v>
       </c>
       <c r="N9">
-        <v>6082278.702557526</v>
+        <v>8234718.328459279</v>
       </c>
       <c r="O9">
-        <v>5224030.537801768</v>
+        <v>7630283.224290506</v>
       </c>
       <c r="P9">
-        <v>9.049960424544897</v>
+        <v>6.117765978964275</v>
       </c>
       <c r="Q9">
-        <v>0.01837873035649554</v>
+        <v>0.01226638164444425</v>
       </c>
       <c r="R9">
-        <v>21.86427830353609</v>
+        <v>17.97662821891863</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2223,34 +2240,34 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F10">
-        <v>91.01399329655185</v>
+        <v>91.01399329790132</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K10">
-        <v>6.082278702557526</v>
+        <v>8.234718328459278</v>
       </c>
       <c r="L10">
         <v>50</v>
@@ -2259,19 +2276,19 @@
         <v>31.06855</v>
       </c>
       <c r="N10">
-        <v>5224030.537801768</v>
+        <v>7630283.224290506</v>
       </c>
       <c r="O10">
-        <v>4188132.461862295</v>
+        <v>6971507.148220277</v>
       </c>
       <c r="P10">
-        <v>11.34346192400406</v>
+        <v>6.718431394129105</v>
       </c>
       <c r="Q10">
-        <v>0.0231786028354383</v>
+        <v>0.01351645183285692</v>
       </c>
       <c r="R10">
-        <v>24.47848951945736</v>
+        <v>18.8384752993216</v>
       </c>
     </row>
   </sheetData>
@@ -2289,72 +2306,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2363,16 +2380,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.564812632038708</v>
+        <v>1.190958069291879</v>
       </c>
       <c r="I2">
-        <v>109.9901421129458</v>
+        <v>40.67834294825942</v>
       </c>
       <c r="J2">
-        <v>11.50791476765372</v>
+        <v>4.256044174006567</v>
       </c>
       <c r="K2">
-        <v>15432.34386171899</v>
+        <v>5707.440358226286</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2398,16 +2415,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2416,16 +2433,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.309254690820824</v>
+        <v>1.306836670094398</v>
       </c>
       <c r="I3">
-        <v>52.79510610328959</v>
+        <v>51.93271834179766</v>
       </c>
       <c r="J3">
-        <v>5.523782127329225</v>
+        <v>5.43355326985829</v>
       </c>
       <c r="K3">
-        <v>7407.502308391037</v>
+        <v>7286.503605945364</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2451,16 +2468,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2469,16 +2486,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.45890651146195</v>
+        <v>1.182005893161343</v>
       </c>
       <c r="I4">
-        <v>74.98263043428399</v>
+        <v>31.80595949758399</v>
       </c>
       <c r="J4">
-        <v>7.845191428211237</v>
+        <v>3.327755233062496</v>
       </c>
       <c r="K4">
-        <v>10520.55860905983</v>
+        <v>4462.586322641469</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2517,114 +2534,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B2">
-        <v>6082278.702557526</v>
+        <v>8234718.328459279</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B3">
-        <v>5032461.057298925</v>
+        <v>7509791.199022888</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4">
-        <v>4065706.353322384</v>
+        <v>6914364.611808279</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B5">
-        <v>6362068.659838899</v>
+        <v>8234718.328459279</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6">
-        <v>5870527.070487222</v>
+        <v>7671909.157112338</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B7">
-        <v>5303831.340960642</v>
+        <v>7031708.239019395</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8">
-        <v>4645603.903656286</v>
+        <v>6301260.530028175</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9">
-        <v>6082278.702557526</v>
+        <v>8234718.328459279</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10">
-        <v>5216436.929822829</v>
+        <v>7628109.572990223</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11">
-        <v>4169066.800903205</v>
+        <v>6966732.04093344</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12">
-        <v>6082278.702557526</v>
+        <v>8234718.328459279</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B13">
-        <v>5224030.537801768</v>
+        <v>7630283.224290506</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B14">
-        <v>4188132.461862295</v>
+        <v>6971507.148220277</v>
       </c>
     </row>
   </sheetData>
@@ -2642,36 +2659,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.78565297300071</v>
+        <v>19.78565176743997</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -2680,21 +2697,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520522480032</v>
+        <v>1150.520452377602</v>
       </c>
       <c r="G2">
-        <v>1.06456202200202E-05</v>
+        <v>4.552513939076411E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269156418788</v>
+        <v>51.44269156495063</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -2703,21 +2720,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999922368</v>
+        <v>2991.352999966722</v>
       </c>
       <c r="G3">
-        <v>-2.595209953092273E-09</v>
+        <v>-1.112485405112064E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
       </c>
       <c r="C4">
-        <v>39.57130173236396</v>
+        <v>39.57130173295069</v>
       </c>
       <c r="D4">
         <v>58.14923187271204</v>
@@ -2726,10 +2743,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799940283</v>
+        <v>2301.040799974402</v>
       </c>
       <c r="G4">
-        <v>-2.595218205779217E-09</v>
+        <v>-1.112482627772792E-09</v>
       </c>
     </row>
   </sheetData>

--- a/examples/wangetal2018/out/ResultFiles/DR_0.2_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/DR_0.2_a.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="201">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -423,9 +423,87 @@
     <t>PI09</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
@@ -435,19 +513,37 @@
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
   </si>
   <si>
     <t>N03</t>
@@ -1153,7 +1249,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.3710416817585803</v>
+        <v>0.3730663108410029</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1164,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.1788699751687788</v>
+        <v>0.1789046647876792</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1186,7 +1282,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.0307245789615052</v>
+        <v>0.0307305376135039</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1208,7 +1304,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006349032734900917</v>
+        <v>0.006350264051256565</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1219,7 +1315,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01505235692050328</v>
+        <v>0.01505527613891672</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1241,7 +1337,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.01701801172198347</v>
+        <v>0.01701801172198348</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1252,7 +1348,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.05247048681259371</v>
+        <v>0.0544088289694801</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1296,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.007538262375008494</v>
+        <v>0.007548385520420608</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1307,7 +1403,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.06199668397451732</v>
+        <v>0.06201628853152125</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1318,7 +1414,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001022293088789189</v>
+        <v>0.001034053506241118</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1384,7 +1480,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -1395,7 +1491,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>248.5484</v>
+        <v>248.5484000000001</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -1425,7 +1521,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>2986.008498903386</v>
+        <v>3096.316340622443</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1436,7 +1532,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>124.4170207876411</v>
+        <v>129.0131808592685</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1458,7 +1554,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>295441226.2830205</v>
+        <v>295441226.2830206</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -1543,7 +1639,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1588,7 +1684,7 @@
         <v>650</v>
       </c>
       <c r="B47">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
@@ -1597,13 +1693,13 @@
         <v>94</v>
       </c>
       <c r="E47">
-        <v>177127706.638195</v>
+        <v>177127706.6381951</v>
       </c>
       <c r="F47">
-        <v>82061602.62209213</v>
+        <v>82061602.62209216</v>
       </c>
       <c r="G47">
-        <v>36251917.02273338</v>
+        <v>36251917.02273339</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -1645,7 +1741,7 @@
         <v>104</v>
       </c>
       <c r="B53">
-        <v>4.256044174006567</v>
+        <v>4.410623589085994</v>
       </c>
       <c r="C53">
         <v>12.5</v>
@@ -1660,7 +1756,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G53">
-        <v>40.67834294825942</v>
+        <v>42.15577931927876</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1671,7 +1767,7 @@
         <v>105</v>
       </c>
       <c r="B54">
-        <v>5.43355326985829</v>
+        <v>5.641692512272236</v>
       </c>
       <c r="C54">
         <v>12.5</v>
@@ -1686,7 +1782,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G54">
-        <v>51.93271834179766</v>
+        <v>53.92206787336865</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1697,7 +1793,7 @@
         <v>106</v>
       </c>
       <c r="B55">
-        <v>3.327755233062496</v>
+        <v>3.4459180195486</v>
       </c>
       <c r="C55">
         <v>12.5</v>
@@ -1712,7 +1808,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G55">
-        <v>31.80595949758399</v>
+        <v>32.93533366662106</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1725,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1795,16 +1891,16 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F2">
-        <v>111.4271514164535</v>
+        <v>111.4494612355663</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1822,25 +1918,25 @@
         <v>8.234718328459278</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
-        <v>8234718.328459279</v>
+        <v>7752502.946873313</v>
       </c>
       <c r="O2">
-        <v>7509791.199022888</v>
+        <v>7499155.453153158</v>
       </c>
       <c r="P2">
-        <v>7.614698401536553</v>
+        <v>7.04682411244849</v>
       </c>
       <c r="Q2">
-        <v>0.01527719573544961</v>
+        <v>0.01403927858352762</v>
       </c>
       <c r="R2">
-        <v>18.12570696367152</v>
+        <v>18.26743189013536</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1851,16 +1947,16 @@
         <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F3">
-        <v>111.4271583708736</v>
+        <v>111.4494428489811</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -1878,25 +1974,25 @@
         <v>8.234718328459278</v>
       </c>
       <c r="L3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>18.64113</v>
+        <v>9.320565</v>
       </c>
       <c r="N3">
-        <v>7509791.199022888</v>
+        <v>7202924.316385321</v>
       </c>
       <c r="O3">
-        <v>6914364.611808279</v>
+        <v>6893284.479768869</v>
       </c>
       <c r="P3">
-        <v>8.295821537287075</v>
+        <v>7.060578143227115</v>
       </c>
       <c r="Q3">
-        <v>0.01669486931914739</v>
+        <v>0.01410214073422789</v>
       </c>
       <c r="R3">
-        <v>18.91899871324437</v>
+        <v>19.09465041432919</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1907,16 +2003,16 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F4">
-        <v>111.2216963197888</v>
+        <v>111.2373979570512</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -1934,25 +2030,25 @@
         <v>8.234718328459278</v>
       </c>
       <c r="L4">
-        <v>31.5</v>
+        <v>15.75</v>
       </c>
       <c r="M4">
-        <v>19.5731865</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N4">
-        <v>8234718.328459279</v>
+        <v>7954699.355767909</v>
       </c>
       <c r="O4">
-        <v>7671909.157112338</v>
+        <v>7663910.61497571</v>
       </c>
       <c r="P4">
-        <v>7.433994308468796</v>
+        <v>7.033331879946362</v>
       </c>
       <c r="Q4">
-        <v>0.01490231216669622</v>
+        <v>0.01400279817751636</v>
       </c>
       <c r="R4">
-        <v>17.92595103712143</v>
+        <v>18.0597900369077</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1963,16 +2059,16 @@
         <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F5">
-        <v>91.4360445523488</v>
+        <v>91.45174756482805</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -1990,25 +2086,25 @@
         <v>8.234718328459278</v>
       </c>
       <c r="L5">
-        <v>48.5</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M5">
-        <v>30.1364935</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N5">
-        <v>7671909.157112338</v>
+        <v>7236795.81040544</v>
       </c>
       <c r="O5">
-        <v>7031708.239019395</v>
+        <v>7012965.53486993</v>
       </c>
       <c r="P5">
-        <v>6.689693872511192</v>
+        <v>5.800604010665601</v>
       </c>
       <c r="Q5">
-        <v>0.01345443853198997</v>
+        <v>0.01157978235855621</v>
       </c>
       <c r="R5">
-        <v>18.75470558704113</v>
+        <v>18.92280008503256</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2019,16 +2115,16 @@
         <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F6">
-        <v>91.43604481623245</v>
+        <v>91.45174684687314</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2046,25 +2142,25 @@
         <v>8.234718328459278</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M6">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N6">
-        <v>7031708.239019395</v>
+        <v>6525952.742251482</v>
       </c>
       <c r="O6">
-        <v>6301260.530028175</v>
+        <v>6267514.761693668</v>
       </c>
       <c r="P6">
-        <v>7.494281000673162</v>
+        <v>5.819630856818734</v>
       </c>
       <c r="Q6">
-        <v>0.01513039729995665</v>
+        <v>0.01165301412279998</v>
       </c>
       <c r="R6">
-        <v>19.85053010953136</v>
+        <v>20.07395854183265</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2075,16 +2171,16 @@
         <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F7">
-        <v>91.17429546536687</v>
+        <v>91.17998736864102</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2102,25 +2198,25 @@
         <v>8.234718328459278</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M7">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N7">
-        <v>8234718.328459279</v>
+        <v>7830246.065838099</v>
       </c>
       <c r="O7">
-        <v>7628109.572990223</v>
+        <v>7619535.574933316</v>
       </c>
       <c r="P7">
-        <v>6.130353462908104</v>
+        <v>5.773105686506229</v>
       </c>
       <c r="Q7">
-        <v>0.01229175639002622</v>
+        <v>0.01149592775271041</v>
       </c>
       <c r="R7">
-        <v>17.97928600161139</v>
+        <v>18.11501852333395</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2131,16 +2227,16 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F8">
-        <v>91.17429546762048</v>
+        <v>91.17998736067086</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2158,25 +2254,25 @@
         <v>8.234718328459278</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M8">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N8">
-        <v>7628109.572990223</v>
+        <v>7178579.040003384</v>
       </c>
       <c r="O8">
-        <v>6966732.04093344</v>
+        <v>6947044.849556389</v>
       </c>
       <c r="P8">
-        <v>6.735046244103862</v>
+        <v>5.791976619557976</v>
       </c>
       <c r="Q8">
-        <v>0.01355021394407984</v>
+        <v>0.01156576628085055</v>
       </c>
       <c r="R8">
-        <v>18.84516628988888</v>
+        <v>19.0168787320335</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2187,16 +2283,16 @@
         <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F9">
-        <v>91.01399329921645</v>
+        <v>91.01399329840558</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2214,25 +2310,25 @@
         <v>8.234718328459278</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M9">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N9">
-        <v>8234718.328459279</v>
+        <v>7831726.487312527</v>
       </c>
       <c r="O9">
-        <v>7630283.224290506</v>
+        <v>7621820.656312619</v>
       </c>
       <c r="P9">
-        <v>6.117765978964275</v>
+        <v>5.762595700500638</v>
       </c>
       <c r="Q9">
-        <v>0.01226638164444425</v>
+        <v>0.01147488967788264</v>
       </c>
       <c r="R9">
-        <v>17.97662821891863</v>
+        <v>18.11216216321391</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2243,16 +2339,16 @@
         <v>131</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="F10">
-        <v>91.01399329790132</v>
+        <v>91.01399329817059</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2270,25 +2366,921 @@
         <v>8.234718328459278</v>
       </c>
       <c r="L10">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M10">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N10">
-        <v>7630283.224290506</v>
+        <v>7182633.387575614</v>
       </c>
       <c r="O10">
-        <v>6971507.148220277</v>
+        <v>6952080.521557728</v>
       </c>
       <c r="P10">
-        <v>6.718431394129105</v>
+        <v>5.781432280448911</v>
       </c>
       <c r="Q10">
-        <v>0.01351645183285692</v>
+        <v>0.01154446746538749</v>
       </c>
       <c r="R10">
-        <v>18.8384752993216</v>
+        <v>19.00964252582132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11">
+        <v>111.4494729896043</v>
+      </c>
+      <c r="G11">
+        <v>650</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11">
+        <v>9.525</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L11">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M11">
+        <v>8.284946666666665</v>
+      </c>
+      <c r="N11">
+        <v>8234718.328459279</v>
+      </c>
+      <c r="O11">
+        <v>7997433.135885885</v>
+      </c>
+      <c r="P11">
+        <v>7.034663707360317</v>
+      </c>
+      <c r="Q11">
+        <v>0.01398574786043174</v>
+      </c>
+      <c r="R11">
+        <v>17.65989148822588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12">
+        <v>111.4494674119047</v>
+      </c>
+      <c r="G12">
+        <v>650</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>9.525</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L12">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="M12">
+        <v>8.284946666666665</v>
+      </c>
+      <c r="N12">
+        <v>7997433.135885885</v>
+      </c>
+      <c r="O12">
+        <v>7752502.946873313</v>
+      </c>
+      <c r="P12">
+        <v>7.040736211826364</v>
+      </c>
+      <c r="Q12">
+        <v>0.01401229218076181</v>
+      </c>
+      <c r="R12">
+        <v>17.95102365134374</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13">
+        <v>111.449453791456</v>
+      </c>
+      <c r="G13">
+        <v>650</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13">
+        <v>9.525</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L13">
+        <v>15</v>
+      </c>
+      <c r="M13">
+        <v>9.320565</v>
+      </c>
+      <c r="N13">
+        <v>7499155.453153158</v>
+      </c>
+      <c r="O13">
+        <v>7202924.316385321</v>
+      </c>
+      <c r="P13">
+        <v>7.053691522817312</v>
+      </c>
+      <c r="Q13">
+        <v>0.01407039117332035</v>
+      </c>
+      <c r="R13">
+        <v>18.65859025516634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14">
+        <v>111.2373981568866</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14">
+        <v>9.525</v>
+      </c>
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L14">
+        <v>15.75</v>
+      </c>
+      <c r="M14">
+        <v>9.786593249999999</v>
+      </c>
+      <c r="N14">
+        <v>8234718.328459279</v>
+      </c>
+      <c r="O14">
+        <v>7954699.355767909</v>
+      </c>
+      <c r="P14">
+        <v>7.026154983713411</v>
+      </c>
+      <c r="Q14">
+        <v>0.01397133956029114</v>
+      </c>
+      <c r="R14">
+        <v>17.70971344730487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15">
+        <v>91.45174791712618</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>9.525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L15">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M15">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N15">
+        <v>7663910.61497571</v>
+      </c>
+      <c r="O15">
+        <v>7453571.161089744</v>
+      </c>
+      <c r="P15">
+        <v>5.788397298271327</v>
+      </c>
+      <c r="Q15">
+        <v>0.01153428966094476</v>
+      </c>
+      <c r="R15">
+        <v>18.32615860835746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16">
+        <v>91.45174777147351</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16">
+        <v>9.525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L16">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="M16">
+        <v>10.04549783333334</v>
+      </c>
+      <c r="N16">
+        <v>7453571.161089744</v>
+      </c>
+      <c r="O16">
+        <v>7236795.81040544</v>
+      </c>
+      <c r="P16">
+        <v>5.794491171198653</v>
+      </c>
+      <c r="Q16">
+        <v>0.01155697526386567</v>
+      </c>
+      <c r="R16">
+        <v>18.61261012436295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17">
+        <v>91.45174737749143</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M17">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N17">
+        <v>7012965.53486993</v>
+      </c>
+      <c r="O17">
+        <v>6774064.188488241</v>
+      </c>
+      <c r="P17">
+        <v>5.80692588327634</v>
+      </c>
+      <c r="Q17">
+        <v>0.01160387332606102</v>
+      </c>
+      <c r="R17">
+        <v>19.2705800847181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18">
+        <v>91.45174707181476</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M18">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N18">
+        <v>6774064.188488241</v>
+      </c>
+      <c r="O18">
+        <v>6525952.742251482</v>
+      </c>
+      <c r="P18">
+        <v>5.813268115859183</v>
+      </c>
+      <c r="Q18">
+        <v>0.01162825858572458</v>
+      </c>
+      <c r="R18">
+        <v>19.65223026005728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19">
+        <v>91.17998737455817</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>8234718.328459279</v>
+      </c>
+      <c r="O19">
+        <v>8035158.06291038</v>
+      </c>
+      <c r="P19">
+        <v>5.76062544212198</v>
+      </c>
+      <c r="Q19">
+        <v>0.01145098617790384</v>
+      </c>
+      <c r="R19">
+        <v>17.61625687337159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20">
+        <v>91.17998737107754</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>8035158.06291038</v>
+      </c>
+      <c r="O20">
+        <v>7830246.065838099</v>
+      </c>
+      <c r="P20">
+        <v>5.766855597269713</v>
+      </c>
+      <c r="Q20">
+        <v>0.01147324209793329</v>
+      </c>
+      <c r="R20">
+        <v>17.85717863112467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21">
+        <v>91.17998736551617</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>7619535.574933316</v>
+      </c>
+      <c r="O21">
+        <v>7402509.946284339</v>
+      </c>
+      <c r="P21">
+        <v>5.779375815282066</v>
+      </c>
+      <c r="Q21">
+        <v>0.01151880917836758</v>
+      </c>
+      <c r="R21">
+        <v>18.39245471940635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22">
+        <v>91.1799873623944</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>7402509.946284339</v>
+      </c>
+      <c r="O22">
+        <v>7178579.040003384</v>
+      </c>
+      <c r="P22">
+        <v>5.785666090369758</v>
+      </c>
+      <c r="Q22">
+        <v>0.0115421466035127</v>
+      </c>
+      <c r="R22">
+        <v>18.69184994733238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23">
+        <v>91.01399329870925</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>8234718.328459279</v>
+      </c>
+      <c r="O23">
+        <v>8035878.467963827</v>
+      </c>
+      <c r="P23">
+        <v>5.750138175289677</v>
+      </c>
+      <c r="Q23">
+        <v>0.01143010476864343</v>
+      </c>
+      <c r="R23">
+        <v>17.61542675977196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24">
+        <v>91.01399329845916</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>93</v>
+      </c>
+      <c r="K24">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M24">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N24">
+        <v>8035878.467963827</v>
+      </c>
+      <c r="O24">
+        <v>7831726.487312527</v>
+      </c>
+      <c r="P24">
+        <v>5.756356989096341</v>
+      </c>
+      <c r="Q24">
+        <v>0.01145228233808689</v>
+      </c>
+      <c r="R24">
+        <v>17.85540584273229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25">
+        <v>91.01399329833821</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M25">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N25">
+        <v>7621820.656312619</v>
+      </c>
+      <c r="O25">
+        <v>7405650.602423754</v>
+      </c>
+      <c r="P25">
+        <v>5.768854415104959</v>
+      </c>
+      <c r="Q25">
+        <v>0.01149768559055371</v>
+      </c>
+      <c r="R25">
+        <v>18.38835738555648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26">
+        <v>91.01399329826681</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26">
+        <v>8.234718328459278</v>
+      </c>
+      <c r="L26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M26">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N26">
+        <v>7405650.602423754</v>
+      </c>
+      <c r="O26">
+        <v>7182633.387575614</v>
+      </c>
+      <c r="P26">
+        <v>5.775133239346812</v>
+      </c>
+      <c r="Q26">
+        <v>0.01152094213077903</v>
+      </c>
+      <c r="R26">
+        <v>18.68629869013815</v>
       </c>
     </row>
   </sheetData>
@@ -2306,7 +3298,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2321,43 +3313,43 @@
         <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2365,13 +3357,13 @@
         <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2380,16 +3372,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.190958069291879</v>
+        <v>1.194600099941819</v>
       </c>
       <c r="I2">
-        <v>40.67834294825942</v>
+        <v>42.15577931927876</v>
       </c>
       <c r="J2">
-        <v>4.256044174006567</v>
+        <v>4.410623589085994</v>
       </c>
       <c r="K2">
-        <v>5707.440358226286</v>
+        <v>5914.734445436099</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2418,13 +3410,13 @@
         <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2433,16 +3425,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.306836670094398</v>
+        <v>1.313872984997009</v>
       </c>
       <c r="I3">
-        <v>51.93271834179766</v>
+        <v>53.92206787336865</v>
       </c>
       <c r="J3">
-        <v>5.43355326985829</v>
+        <v>5.641692512272236</v>
       </c>
       <c r="K3">
-        <v>7286.503605945364</v>
+        <v>7565.622492807314</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2471,31 +3463,31 @@
         <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.182005893161343</v>
+        <v>1.185355573022552</v>
       </c>
       <c r="I4">
-        <v>31.80595949758399</v>
+        <v>32.93533366662106</v>
       </c>
       <c r="J4">
-        <v>3.327755233062496</v>
+        <v>3.4459180195486</v>
       </c>
       <c r="K4">
-        <v>4462.586322641469</v>
+        <v>4621.044982575063</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2526,7 +3518,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2534,15 +3526,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>8234718.328459279</v>
@@ -2550,23 +3542,23 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="B3">
-        <v>7509791.199022888</v>
+        <v>7499155.453153158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B4">
-        <v>6914364.611808279</v>
+        <v>6893284.479768869</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="B5">
         <v>8234718.328459279</v>
@@ -2574,31 +3566,31 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B6">
-        <v>7671909.157112338</v>
+        <v>7663910.61497571</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B7">
-        <v>7031708.239019395</v>
+        <v>7012965.53486993</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B8">
-        <v>6301260.530028175</v>
+        <v>6267514.761693668</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B9">
         <v>8234718.328459279</v>
@@ -2606,23 +3598,23 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="B10">
-        <v>7628109.572990223</v>
+        <v>7619535.574933316</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B11">
-        <v>6966732.04093344</v>
+        <v>6947044.849556389</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B12">
         <v>8234718.328459279</v>
@@ -2630,18 +3622,146 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B13">
-        <v>7630283.224290506</v>
+        <v>7621820.656312619</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B14">
-        <v>6971507.148220277</v>
+        <v>6952080.521557728</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15">
+        <v>7997433.135885885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16">
+        <v>7752502.946873313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <v>7202924.316385321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>7954699.355767909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19">
+        <v>7453571.161089744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20">
+        <v>7236795.81040544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21">
+        <v>6774064.188488241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22">
+        <v>6525952.742251482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23">
+        <v>8035158.06291038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24">
+        <v>7830246.065838099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25">
+        <v>7402509.946284339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26">
+        <v>7178579.040003384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27">
+        <v>8035878.467963827</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28">
+        <v>7831726.487312527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29">
+        <v>7405650.602423754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30">
+        <v>7182633.387575614</v>
       </c>
     </row>
   </sheetData>
@@ -2659,36 +3779,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B2">
         <v>19.78565086669546</v>
       </c>
       <c r="C2">
-        <v>19.78565176743997</v>
+        <v>19.78565003992502</v>
       </c>
       <c r="D2">
         <v>58.14923187271204</v>
@@ -2697,21 +3817,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520452377602</v>
+        <v>1150.520351923934</v>
       </c>
       <c r="G2">
-        <v>4.552513939076411E-06</v>
+        <v>-4.178636567989011E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B3">
         <v>51.44269156552292</v>
       </c>
       <c r="C3">
-        <v>51.44269156495063</v>
+        <v>51.44269156510282</v>
       </c>
       <c r="D3">
         <v>58.14923187271204</v>
@@ -2720,21 +3840,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999966722</v>
+        <v>2991.352999975571</v>
       </c>
       <c r="G3">
-        <v>-1.112485405112064E-09</v>
+        <v>-8.166393987291968E-10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>39.57130173339092</v>
       </c>
       <c r="C4">
-        <v>39.57130173295069</v>
+        <v>39.57130173306776</v>
       </c>
       <c r="D4">
         <v>58.14923187271204</v>
@@ -2743,10 +3863,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799974402</v>
+        <v>2301.040799981209</v>
       </c>
       <c r="G4">
-        <v>-1.112482627772792E-09</v>
+        <v>-8.166393878091965E-10</v>
       </c>
     </row>
   </sheetData>
